--- a/example/demo_wdt_reg_spec.xlsx
+++ b/example/demo_wdt_reg_spec.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
   <si>
     <t>序号</t>
   </si>
@@ -75,6 +75,9 @@
     <t>FieldResetValue</t>
   </si>
   <si>
+    <t>HDLPath</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -112,6 +115,9 @@
   </si>
   <si>
     <t>3'h0</t>
+  </si>
+  <si>
+    <t>dflt_rpl</t>
   </si>
   <si>
     <t>This is used to select the number of pclk cycles for which the system reset stays asserted. The range of values available is 2 to
@@ -136,6 +142,9 @@
     <t>1'b1</t>
   </si>
   <si>
+    <t>dflt_rmod</t>
+  </si>
+  <si>
     <t>0 = Generate a system reset.
 1 = First generate an interrupt and if it is not cleared by the time a second timeout occurs then generate a system reset.
 Reset Value: 1</t>
@@ -148,6 +157,9 @@
   </si>
   <si>
     <t>1'b0</t>
+  </si>
+  <si>
+    <t>dflt_wdt_en</t>
   </si>
   <si>
     <t>Once this bit has been enabled, it can only be cleared by a system reset.
@@ -175,6 +187,9 @@
   </si>
   <si>
     <t>4'h0</t>
+  </si>
+  <si>
+    <t>wdt_torr_ir</t>
   </si>
   <si>
     <t>Used to select the timeout period that the watchdog counter restarts from for the first counter restart(kick). This register should be written after reset and before the WDT is enabled. 
@@ -213,6 +228,9 @@
     <t>CCV</t>
   </si>
   <si>
+    <t>int_cnt</t>
+  </si>
+  <si>
     <t xml:space="preserve">This register, when read, is the current value of the internal counter. This value is read coherently whenever it is read. 
 Reset Value: 32’hffff </t>
   </si>
@@ -243,6 +261,9 @@
   </si>
   <si>
     <t>ISR</t>
+  </si>
+  <si>
+    <t>wdt_int</t>
   </si>
   <si>
     <t xml:space="preserve">This register shows the interrupt status of the WDT. 1 = Interrupt is active regardless of polarity. 0 = Interrupt is inactive. 
@@ -1699,12 +1720,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1717,12 +1738,13 @@
     <col min="8" max="8" width="19.6416666666667" style="3" customWidth="1"/>
     <col min="9" max="9" width="17.8916666666667" style="4" customWidth="1"/>
     <col min="10" max="10" width="27.85" style="3" customWidth="1"/>
-    <col min="11" max="11" width="60.6416666666667" style="5" customWidth="1"/>
-    <col min="12" max="12" width="33.7916666666667" customWidth="1"/>
-    <col min="13" max="1025" width="9.54166666666667" customWidth="1"/>
+    <col min="11" max="11" width="23.25" style="5" customWidth="1"/>
+    <col min="12" max="12" width="60.6416666666667" style="5" customWidth="1"/>
+    <col min="13" max="13" width="33.7916666666667" customWidth="1"/>
+    <col min="14" max="1026" width="9.54166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:11">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:12">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -1756,38 +1778,42 @@
       <c r="K1" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:11">
+      <c r="L1" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:12">
       <c r="A2" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="7">
         <v>32</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="5"/>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="175.5" spans="1:11">
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="175.5" spans="1:12">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1795,22 +1821,25 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="67.5" spans="1:11">
+        <v>29</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="67.5" spans="1:12">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1818,22 +1847,25 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="67.5" spans="1:11">
+        <v>34</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="67.5" spans="1:12">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1841,48 +1873,52 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:11">
+        <v>39</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:12">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E6" s="7">
         <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6" s="10"/>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="162" spans="1:11">
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="162" spans="1:12">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1890,22 +1926,25 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="108" spans="1:11">
+        <v>48</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="108" spans="1:12">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1913,79 +1952,86 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="54" spans="1:11">
+        <v>48</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="54" spans="1:12">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E9" s="7">
         <v>32</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="1:11">
+        <v>58</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:12">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E10" s="7">
         <v>32</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K10" s="5"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="67.5" spans="1:11">
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="67.5" spans="1:12">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1993,49 +2039,51 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="1:11">
+        <v>38</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:12">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E12" s="7">
         <v>32</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="5"/>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="54" spans="1:11">
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="54" spans="1:12">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -2043,49 +2091,53 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="1:11">
+        <v>69</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:12">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E14" s="7">
         <v>32</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="5"/>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="40.5" spans="1:11">
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="40.5" spans="1:12">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -2093,19 +2145,20 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>67</v>
+        <v>38</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
